--- a/DataFormat.xlsx
+++ b/DataFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\Documents\分布式系统\ZhihuCluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6CF77A-D701-45E3-A90B-3F8A2110489A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB76DC2-EB95-423E-B40B-5D56D554435E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{A2C70AA4-AECB-4E9F-9C22-C2E635C34599}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>user_info.txt</t>
   </si>
@@ -214,6 +214,10 @@
       </rPr>
       <t>ID</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFD0957-A0F7-486F-856A-116AA4C6AE80}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -630,7 +634,7 @@
     <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -682,7 +686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -693,7 +697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -704,7 +708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -718,7 +722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -729,7 +733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -743,22 +747,25 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>37</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>

--- a/DataFormat.xlsx
+++ b/DataFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\Documents\分布式系统\ZhihuCluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB76DC2-EB95-423E-B40B-5D56D554435E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB80FD7-C2EB-4E8B-BA90-001F8D2135B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{A2C70AA4-AECB-4E9F-9C22-C2E635C34599}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>user_info.txt</t>
   </si>
@@ -122,35 +122,9 @@
     <t>answer_infos.txt</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对应的问题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>training_set.txt</t>
   </si>
   <si>
-    <t>与其他文章的交互数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文章交互信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,29 +169,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文章</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF666666"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应问题ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户与其他文章的交互数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,26 +211,6 @@
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -295,11 +239,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,173 +561,217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFD0957-A0F7-486F-856A-116AA4C6AE80}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DataFormat.xlsx
+++ b/DataFormat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\Documents\分布式系统\ZhihuCluster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB80FD7-C2EB-4E8B-BA90-001F8D2135B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71D8EE9-C882-483C-B513-1EA87CF2878C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{A2C70AA4-AECB-4E9F-9C22-C2E635C34599}"/>
   </bookViews>
@@ -562,7 +562,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -741,34 +741,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
